--- a/fixtures/xlsx/charts-ex/box-whisker.xlsx
+++ b/fixtures/xlsx/charts-ex/box-whisker.xlsx
@@ -65,6 +65,8 @@
     <cx:plotArea>
       <cx:boxWhiskerChart>
         <cx:ser>
+          <cx:idx val="0"/>
+          <cx:order val="0"/>
           <cx:tx>
             <cx:strRef>
               <cx:f>Sheet1!$B$1</cx:f>
@@ -97,6 +99,7 @@
             <cx:numRef>
               <cx:f>Sheet1!$B$2:$B$4</cx:f>
               <cx:numCache>
+                <cx:formatCode>General</cx:formatCode>
                 <cx:ptCount val="3"/>
                 <cx:pt idx="0">
                   <cx:v>10</cx:v>
